--- a/原创-业务安全/业务安全问题.xlsx
+++ b/原创-业务安全/业务安全问题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>业务</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>信息泄露，羊毛，信息伪装骗取贷款</t>
+  </si>
+  <si>
+    <t>平台账号资产</t>
+  </si>
+  <si>
+    <t>微博，B站，知乎，微信</t>
+  </si>
+  <si>
+    <t>弱口令、公共账号</t>
+  </si>
+  <si>
+    <t>安全管理</t>
   </si>
 </sst>
 </file>
@@ -65,7 +77,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -520,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,10 +540,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,7 +552,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,13 +561,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,12 +676,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1020,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
@@ -1066,6 +1083,25 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1"/>
+    <row r="14" s="2" customFormat="1" ht="42" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/原创-业务安全/业务安全问题.xlsx
+++ b/原创-业务安全/业务安全问题.xlsx
@@ -1040,7 +1040,7 @@
   <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1098,8 +1098,6 @@
         <v>12</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
   </sheetData>
